--- a/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,13 +502,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37569</v>
+        <v>37580</v>
       </c>
       <c r="D2" t="n">
         <v>9010</v>
       </c>
       <c r="E2" t="n">
-        <v>68536450</v>
+        <v>68546267</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -639,13 +706,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17345</v>
+        <v>17348</v>
       </c>
       <c r="D6" t="n">
         <v>3779</v>
       </c>
       <c r="E6" t="n">
-        <v>80132678</v>
+        <v>80135654</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -741,13 +808,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9725</v>
+        <v>9726</v>
       </c>
       <c r="D8" t="n">
         <v>2011</v>
       </c>
       <c r="E8" t="n">
-        <v>51273757</v>
+        <v>51275766</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -843,13 +910,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D10" t="n">
         <v>240</v>
       </c>
       <c r="E10" t="n">
-        <v>6987966</v>
+        <v>6998086</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -894,13 +961,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25586</v>
+        <v>25591</v>
       </c>
       <c r="D11" t="n">
         <v>5734</v>
       </c>
       <c r="E11" t="n">
-        <v>47639815</v>
+        <v>47645896</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1098,13 +1165,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8707</v>
+        <v>8710</v>
       </c>
       <c r="D15" t="n">
         <v>1803</v>
       </c>
       <c r="E15" t="n">
-        <v>39451167</v>
+        <v>39452672</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1302,13 +1369,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D19" t="n">
         <v>131</v>
       </c>
       <c r="E19" t="n">
-        <v>3138046</v>
+        <v>3138278</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1353,13 +1420,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33350</v>
+        <v>33358</v>
       </c>
       <c r="D20" t="n">
         <v>6885</v>
       </c>
       <c r="E20" t="n">
-        <v>62542694</v>
+        <v>62547602</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1557,13 +1624,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13545</v>
+        <v>13548</v>
       </c>
       <c r="D24" t="n">
         <v>2530</v>
       </c>
       <c r="E24" t="n">
-        <v>64706125</v>
+        <v>64822484</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1659,13 +1726,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5100</v>
+        <v>5104</v>
       </c>
       <c r="D26" t="n">
         <v>903</v>
       </c>
       <c r="E26" t="n">
-        <v>28618452</v>
+        <v>28630117</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1812,13 +1879,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16185</v>
+        <v>16188</v>
       </c>
       <c r="D29" t="n">
         <v>3506</v>
       </c>
       <c r="E29" t="n">
-        <v>33639110</v>
+        <v>33640624</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1965,13 +2032,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="D32" t="n">
         <v>887</v>
       </c>
       <c r="E32" t="n">
-        <v>21443106</v>
+        <v>21444247</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2271,13 +2338,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>49350</v>
+        <v>49356</v>
       </c>
       <c r="D38" t="n">
         <v>10753</v>
       </c>
       <c r="E38" t="n">
-        <v>82650943</v>
+        <v>82653789</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2475,13 +2542,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20399</v>
+        <v>20400</v>
       </c>
       <c r="D42" t="n">
         <v>4098</v>
       </c>
       <c r="E42" t="n">
-        <v>94986184</v>
+        <v>94989071</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2577,13 +2644,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>11520</v>
+        <v>11525</v>
       </c>
       <c r="D44" t="n">
         <v>2153</v>
       </c>
       <c r="E44" t="n">
-        <v>58920766</v>
+        <v>58930014</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2730,13 +2797,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="D47" t="n">
         <v>356</v>
       </c>
       <c r="E47" t="n">
-        <v>8495776</v>
+        <v>8501253</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2781,13 +2848,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18386</v>
+        <v>18387</v>
       </c>
       <c r="D48" t="n">
         <v>4062</v>
       </c>
       <c r="E48" t="n">
-        <v>37196127</v>
+        <v>37198056</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2934,13 +3001,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7143</v>
+        <v>7144</v>
       </c>
       <c r="D51" t="n">
         <v>1455</v>
       </c>
       <c r="E51" t="n">
-        <v>32378526</v>
+        <v>32378680</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3036,13 +3103,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="D53" t="n">
         <v>568</v>
       </c>
       <c r="E53" t="n">
-        <v>14212682</v>
+        <v>14273502</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3189,13 +3256,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>95976</v>
+        <v>96001</v>
       </c>
       <c r="D56" t="n">
-        <v>18752</v>
+        <v>18753</v>
       </c>
       <c r="E56" t="n">
-        <v>198618690</v>
+        <v>198645251</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3444,13 +3511,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>45615</v>
+        <v>45625</v>
       </c>
       <c r="D61" t="n">
         <v>8045</v>
       </c>
       <c r="E61" t="n">
-        <v>291214826</v>
+        <v>291282502</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3495,13 +3562,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" t="n">
         <v>37</v>
       </c>
       <c r="E62" t="n">
-        <v>7467305</v>
+        <v>7478716</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3597,13 +3664,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19888</v>
+        <v>19892</v>
       </c>
       <c r="D64" t="n">
         <v>3491</v>
       </c>
       <c r="E64" t="n">
-        <v>164505229</v>
+        <v>164526152</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3801,13 +3868,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D68" t="n">
         <v>298</v>
       </c>
       <c r="E68" t="n">
-        <v>13955934</v>
+        <v>13956533</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3852,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>104199</v>
+        <v>104218</v>
       </c>
       <c r="D69" t="n">
-        <v>22834</v>
+        <v>22835</v>
       </c>
       <c r="E69" t="n">
-        <v>185257240</v>
+        <v>185293671</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4107,13 +4174,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>48445</v>
+        <v>48473</v>
       </c>
       <c r="D74" t="n">
         <v>9666</v>
       </c>
       <c r="E74" t="n">
-        <v>239184540</v>
+        <v>239383696</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4209,13 +4276,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>27298</v>
+        <v>27319</v>
       </c>
       <c r="D76" t="n">
-        <v>5051</v>
+        <v>5052</v>
       </c>
       <c r="E76" t="n">
-        <v>146994531</v>
+        <v>147119344</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4413,13 +4480,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="D80" t="n">
         <v>609</v>
       </c>
       <c r="E80" t="n">
-        <v>17201923</v>
+        <v>17236982</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4464,13 +4531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>54365</v>
+        <v>54381</v>
       </c>
       <c r="D81" t="n">
         <v>11914</v>
       </c>
       <c r="E81" t="n">
-        <v>96059790</v>
+        <v>96073501</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4566,13 +4633,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D83" t="n">
         <v>80</v>
       </c>
       <c r="E83" t="n">
-        <v>2888378</v>
+        <v>2889611</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4617,13 +4684,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>22138</v>
+        <v>22150</v>
       </c>
       <c r="D84" t="n">
         <v>4757</v>
       </c>
       <c r="E84" t="n">
-        <v>98945866</v>
+        <v>98987196</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4770,13 +4837,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>13738</v>
+        <v>13746</v>
       </c>
       <c r="D87" t="n">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="E87" t="n">
-        <v>65640483</v>
+        <v>65784447</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4872,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="D89" t="n">
         <v>457</v>
       </c>
       <c r="E89" t="n">
-        <v>10788350</v>
+        <v>10789273</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4923,13 +4990,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>49096</v>
+        <v>49112</v>
       </c>
       <c r="D90" t="n">
         <v>10641</v>
       </c>
       <c r="E90" t="n">
-        <v>87456133</v>
+        <v>87478762</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5127,13 +5194,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>24996</v>
+        <v>25007</v>
       </c>
       <c r="D94" t="n">
         <v>4831</v>
       </c>
       <c r="E94" t="n">
-        <v>119554648</v>
+        <v>119591038</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5229,13 +5296,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>9806</v>
+        <v>9813</v>
       </c>
       <c r="D96" t="n">
         <v>1854</v>
       </c>
       <c r="E96" t="n">
-        <v>54863280</v>
+        <v>54924619</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5433,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>182976</v>
+        <v>183009</v>
       </c>
       <c r="D100" t="n">
         <v>37721</v>
       </c>
       <c r="E100" t="n">
-        <v>303596514</v>
+        <v>303639717</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5586,13 +5653,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D103" t="n">
         <v>112</v>
       </c>
       <c r="E103" t="n">
-        <v>4237527</v>
+        <v>4247105</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5688,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>81801</v>
+        <v>81830</v>
       </c>
       <c r="D105" t="n">
         <v>16062</v>
       </c>
       <c r="E105" t="n">
-        <v>385147949</v>
+        <v>385288163</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5739,13 +5806,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D106" t="n">
         <v>37</v>
       </c>
       <c r="E106" t="n">
-        <v>3112412</v>
+        <v>3126135</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5841,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>59923</v>
+        <v>59956</v>
       </c>
       <c r="D108" t="n">
-        <v>10906</v>
+        <v>10909</v>
       </c>
       <c r="E108" t="n">
-        <v>312361331</v>
+        <v>312893325</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5892,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D109" t="n">
         <v>9</v>
       </c>
       <c r="E109" t="n">
-        <v>323585</v>
+        <v>393544</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6045,13 +6112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7584</v>
+        <v>7588</v>
       </c>
       <c r="D112" t="n">
         <v>1135</v>
       </c>
       <c r="E112" t="n">
-        <v>32334594</v>
+        <v>32346367</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6147,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>86419</v>
+        <v>86460</v>
       </c>
       <c r="D114" t="n">
         <v>14291</v>
       </c>
       <c r="E114" t="n">
-        <v>212375738</v>
+        <v>212484033</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6300,13 +6367,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D117" t="n">
         <v>83</v>
       </c>
       <c r="E117" t="n">
-        <v>6417650</v>
+        <v>6427650</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6402,13 +6469,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>38183</v>
+        <v>38214</v>
       </c>
       <c r="D119" t="n">
         <v>6202</v>
       </c>
       <c r="E119" t="n">
-        <v>282139245</v>
+        <v>282506082</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6504,13 +6571,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>13720</v>
+        <v>13736</v>
       </c>
       <c r="D121" t="n">
         <v>2254</v>
       </c>
       <c r="E121" t="n">
-        <v>147474544</v>
+        <v>147593756</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6708,13 +6775,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D125" t="n">
         <v>272</v>
       </c>
       <c r="E125" t="n">
-        <v>10898325</v>
+        <v>10901646</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6759,13 +6826,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>34610</v>
+        <v>34618</v>
       </c>
       <c r="D126" t="n">
         <v>7714</v>
       </c>
       <c r="E126" t="n">
-        <v>58980451</v>
+        <v>58991042</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6963,13 +7030,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>21531</v>
+        <v>21536</v>
       </c>
       <c r="D130" t="n">
         <v>4173</v>
       </c>
       <c r="E130" t="n">
-        <v>113118828</v>
+        <v>113146289</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -7065,13 +7132,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6956</v>
+        <v>6960</v>
       </c>
       <c r="D132" t="n">
         <v>1295</v>
       </c>
       <c r="E132" t="n">
-        <v>43096927</v>
+        <v>43105873</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -7167,13 +7234,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D134" t="n">
         <v>326</v>
       </c>
       <c r="E134" t="n">
-        <v>6211306</v>
+        <v>6258434</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7218,13 +7285,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D135" t="n">
         <v>218</v>
       </c>
       <c r="E135" t="n">
-        <v>5988514</v>
+        <v>5990204</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -7269,13 +7336,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>30013</v>
+        <v>30019</v>
       </c>
       <c r="D136" t="n">
         <v>6636</v>
       </c>
       <c r="E136" t="n">
-        <v>52593840</v>
+        <v>52598142</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7473,13 +7540,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>16514</v>
+        <v>16517</v>
       </c>
       <c r="D140" t="n">
         <v>3407</v>
       </c>
       <c r="E140" t="n">
-        <v>80518928</v>
+        <v>80526532</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7575,13 +7642,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6044</v>
+        <v>6045</v>
       </c>
       <c r="D142" t="n">
         <v>1164</v>
       </c>
       <c r="E142" t="n">
-        <v>30691222</v>
+        <v>30692900</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7932,13 +7999,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5022</v>
+        <v>5024</v>
       </c>
       <c r="D149" t="n">
         <v>1126</v>
       </c>
       <c r="E149" t="n">
-        <v>21708368</v>
+        <v>21710443</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -8187,13 +8254,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>17183</v>
+        <v>17186</v>
       </c>
       <c r="D154" t="n">
         <v>3761</v>
       </c>
       <c r="E154" t="n">
-        <v>31339953</v>
+        <v>31357879</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -8289,13 +8356,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>7974</v>
+        <v>7976</v>
       </c>
       <c r="D156" t="n">
         <v>1630</v>
       </c>
       <c r="E156" t="n">
-        <v>40038937</v>
+        <v>40039848</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8595,13 +8662,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>12992</v>
+        <v>12996</v>
       </c>
       <c r="D162" t="n">
         <v>2820</v>
       </c>
       <c r="E162" t="n">
-        <v>25688795</v>
+        <v>25691199</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -8697,13 +8764,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5317</v>
+        <v>5318</v>
       </c>
       <c r="D164" t="n">
         <v>1054</v>
       </c>
       <c r="E164" t="n">
-        <v>24880155</v>
+        <v>24880285</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -8799,13 +8866,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D166" t="n">
         <v>370</v>
       </c>
       <c r="E166" t="n">
-        <v>9946595</v>
+        <v>9948046</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -8901,13 +8968,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D168" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E168" t="n">
-        <v>1907062</v>
+        <v>1907286</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -8952,13 +9019,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>37717</v>
+        <v>37732</v>
       </c>
       <c r="D169" t="n">
-        <v>8150</v>
+        <v>8151</v>
       </c>
       <c r="E169" t="n">
-        <v>72985373</v>
+        <v>73002204</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9156,13 +9223,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>17720</v>
+        <v>17729</v>
       </c>
       <c r="D173" t="n">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="E173" t="n">
-        <v>85786409</v>
+        <v>85814453</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9411,13 +9478,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D178" t="n">
         <v>241</v>
       </c>
       <c r="E178" t="n">
-        <v>6214475</v>
+        <v>6216818</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9564,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4097</v>
+        <v>4101</v>
       </c>
       <c r="D181" t="n">
         <v>835</v>
       </c>
       <c r="E181" t="n">
-        <v>21431163</v>
+        <v>21439654</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9819,13 +9886,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20073</v>
+        <v>20077</v>
       </c>
       <c r="D186" t="n">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E186" t="n">
-        <v>36955303</v>
+        <v>36957072</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -9921,13 +9988,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>8844</v>
+        <v>8847</v>
       </c>
       <c r="D188" t="n">
         <v>1799</v>
       </c>
       <c r="E188" t="n">
-        <v>41877353</v>
+        <v>41881629</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -9972,13 +10039,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="D189" t="n">
         <v>866</v>
       </c>
       <c r="E189" t="n">
-        <v>23031252</v>
+        <v>23032547</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -10023,13 +10090,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D190" t="n">
         <v>224</v>
       </c>
       <c r="E190" t="n">
-        <v>5863009</v>
+        <v>5867424</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -10125,13 +10192,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>36947</v>
+        <v>36957</v>
       </c>
       <c r="D192" t="n">
         <v>8475</v>
       </c>
       <c r="E192" t="n">
-        <v>75500815</v>
+        <v>75508434</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -10278,13 +10345,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D195" t="n">
         <v>118</v>
       </c>
       <c r="E195" t="n">
-        <v>5590061</v>
+        <v>5591963</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -10329,13 +10396,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>21038</v>
+        <v>21046</v>
       </c>
       <c r="D196" t="n">
         <v>4185</v>
       </c>
       <c r="E196" t="n">
-        <v>106459149</v>
+        <v>106609681</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -10431,13 +10498,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="D198" t="n">
         <v>752</v>
       </c>
       <c r="E198" t="n">
-        <v>26089738</v>
+        <v>26092932</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -10584,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>55294</v>
+        <v>55302</v>
       </c>
       <c r="D201" t="n">
         <v>13169</v>
       </c>
       <c r="E201" t="n">
-        <v>111169149</v>
+        <v>111174004</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10788,13 +10855,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>29087</v>
+        <v>29095</v>
       </c>
       <c r="D205" t="n">
         <v>5713</v>
       </c>
       <c r="E205" t="n">
-        <v>152320673</v>
+        <v>152366970</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -10941,13 +11008,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>8422</v>
+        <v>8425</v>
       </c>
       <c r="D208" t="n">
         <v>1579</v>
       </c>
       <c r="E208" t="n">
-        <v>56408386</v>
+        <v>56411499</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -10992,13 +11059,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D209" t="n">
         <v>168</v>
       </c>
       <c r="E209" t="n">
-        <v>1673419</v>
+        <v>1712396</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -11043,13 +11110,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D210" t="n">
         <v>400</v>
       </c>
       <c r="E210" t="n">
-        <v>11042620</v>
+        <v>11051815</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -11094,13 +11161,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>62648</v>
+        <v>62666</v>
       </c>
       <c r="D211" t="n">
         <v>14423</v>
       </c>
       <c r="E211" t="n">
-        <v>113176787</v>
+        <v>113201660</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -11247,13 +11314,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="D214" t="n">
         <v>165</v>
       </c>
       <c r="E214" t="n">
-        <v>7374219</v>
+        <v>7404124</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -11298,13 +11365,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>41743</v>
+        <v>41761</v>
       </c>
       <c r="D215" t="n">
         <v>8237</v>
       </c>
       <c r="E215" t="n">
-        <v>225516423</v>
+        <v>225613756</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -11451,13 +11518,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>8397</v>
+        <v>8399</v>
       </c>
       <c r="D218" t="n">
         <v>1659</v>
       </c>
       <c r="E218" t="n">
-        <v>58458026</v>
+        <v>58460743</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11604,13 +11671,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3161</v>
+        <v>3170</v>
       </c>
       <c r="D221" t="n">
         <v>508</v>
       </c>
       <c r="E221" t="n">
-        <v>15268672</v>
+        <v>15330075</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11655,13 +11722,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>52830</v>
+        <v>52836</v>
       </c>
       <c r="D222" t="n">
         <v>12091</v>
       </c>
       <c r="E222" t="n">
-        <v>101309745</v>
+        <v>101325609</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11808,13 +11875,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D225" t="n">
         <v>165</v>
       </c>
       <c r="E225" t="n">
-        <v>8820465</v>
+        <v>8822909</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11910,13 +11977,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>31219</v>
+        <v>31232</v>
       </c>
       <c r="D227" t="n">
         <v>6104</v>
       </c>
       <c r="E227" t="n">
-        <v>160974762</v>
+        <v>161062562</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -12012,13 +12079,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>7776</v>
+        <v>7778</v>
       </c>
       <c r="D229" t="n">
         <v>1506</v>
       </c>
       <c r="E229" t="n">
-        <v>47279584</v>
+        <v>47313590</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -12063,13 +12130,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D230" t="n">
         <v>236</v>
       </c>
       <c r="E230" t="n">
-        <v>2340865</v>
+        <v>2341164</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -12114,13 +12181,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="D231" t="n">
         <v>299</v>
       </c>
       <c r="E231" t="n">
-        <v>8882240</v>
+        <v>8902014</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -12165,13 +12232,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>17229</v>
+        <v>17235</v>
       </c>
       <c r="D232" t="n">
         <v>3899</v>
       </c>
       <c r="E232" t="n">
-        <v>34069652</v>
+        <v>34077066</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -12267,13 +12334,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>7006</v>
+        <v>7011</v>
       </c>
       <c r="D234" t="n">
         <v>1447</v>
       </c>
       <c r="E234" t="n">
-        <v>31929463</v>
+        <v>31949942</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -12369,13 +12436,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="D236" t="n">
         <v>565</v>
       </c>
       <c r="E236" t="n">
-        <v>14865445</v>
+        <v>14875445</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -12420,13 +12487,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D237" t="n">
         <v>200</v>
       </c>
       <c r="E237" t="n">
-        <v>4078503</v>
+        <v>4122974</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -12471,13 +12538,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D238" t="n">
         <v>92</v>
       </c>
       <c r="E238" t="n">
-        <v>1911106</v>
+        <v>1930526</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -12522,13 +12589,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>20945</v>
+        <v>20951</v>
       </c>
       <c r="D239" t="n">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="E239" t="n">
-        <v>39335689</v>
+        <v>39340955</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -12675,13 +12742,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>10096</v>
+        <v>10098</v>
       </c>
       <c r="D242" t="n">
         <v>2227</v>
       </c>
       <c r="E242" t="n">
-        <v>46448028</v>
+        <v>46452175</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -12777,13 +12844,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>5574</v>
+        <v>5575</v>
       </c>
       <c r="D244" t="n">
         <v>1127</v>
       </c>
       <c r="E244" t="n">
-        <v>23538724</v>
+        <v>23538895</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -12879,13 +12946,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D246" t="n">
         <v>115</v>
       </c>
       <c r="E246" t="n">
-        <v>2097897</v>
+        <v>2098596</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -12930,13 +12997,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>12698</v>
+        <v>12699</v>
       </c>
       <c r="D247" t="n">
         <v>2735</v>
       </c>
       <c r="E247" t="n">
-        <v>24062008</v>
+        <v>24062439</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -13083,13 +13150,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>5104</v>
+        <v>5106</v>
       </c>
       <c r="D250" t="n">
         <v>1073</v>
       </c>
       <c r="E250" t="n">
-        <v>23967912</v>
+        <v>23975568</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -13338,13 +13405,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>41887</v>
+        <v>41895</v>
       </c>
       <c r="D255" t="n">
         <v>9351</v>
       </c>
       <c r="E255" t="n">
-        <v>73689759</v>
+        <v>73694615</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -13542,13 +13609,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>21896</v>
+        <v>21905</v>
       </c>
       <c r="D259" t="n">
         <v>4184</v>
       </c>
       <c r="E259" t="n">
-        <v>107979741</v>
+        <v>108004767</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -13593,13 +13660,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D260" t="n">
         <v>13</v>
       </c>
       <c r="E260" t="n">
-        <v>867827</v>
+        <v>875578</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -13695,13 +13762,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>7620</v>
+        <v>7627</v>
       </c>
       <c r="D262" t="n">
         <v>1449</v>
       </c>
       <c r="E262" t="n">
-        <v>42288356</v>
+        <v>42304486</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -13746,13 +13813,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D263" t="n">
         <v>349</v>
       </c>
       <c r="E263" t="n">
-        <v>7734587</v>
+        <v>7735570</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -13848,13 +13915,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D265" t="n">
         <v>297</v>
       </c>
       <c r="E265" t="n">
-        <v>7093317</v>
+        <v>7094311</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -13950,13 +14017,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>34920</v>
+        <v>34924</v>
       </c>
       <c r="D267" t="n">
-        <v>8098</v>
+        <v>8099</v>
       </c>
       <c r="E267" t="n">
-        <v>61657543</v>
+        <v>61659668</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -14103,13 +14170,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>18468</v>
+        <v>18476</v>
       </c>
       <c r="D270" t="n">
         <v>3852</v>
       </c>
       <c r="E270" t="n">
-        <v>88967489</v>
+        <v>89002130</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -14205,13 +14272,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>8692</v>
+        <v>8697</v>
       </c>
       <c r="D272" t="n">
         <v>1755</v>
       </c>
       <c r="E272" t="n">
-        <v>40926966</v>
+        <v>40955477</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -14511,13 +14578,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>10207</v>
+        <v>10214</v>
       </c>
       <c r="D278" t="n">
         <v>2119</v>
       </c>
       <c r="E278" t="n">
-        <v>48699426</v>
+        <v>48914574</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -14664,13 +14731,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D281" t="n">
         <v>153</v>
       </c>
       <c r="E281" t="n">
-        <v>2241983</v>
+        <v>2246403</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -14715,13 +14782,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D282" t="n">
         <v>154</v>
       </c>
       <c r="E282" t="n">
-        <v>4086933</v>
+        <v>4087866</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -14766,13 +14833,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>22128</v>
+        <v>22129</v>
       </c>
       <c r="D283" t="n">
         <v>4585</v>
       </c>
       <c r="E283" t="n">
-        <v>49562811</v>
+        <v>49572011</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -14970,13 +15037,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>13923</v>
+        <v>13928</v>
       </c>
       <c r="D287" t="n">
         <v>2288</v>
       </c>
       <c r="E287" t="n">
-        <v>92107305</v>
+        <v>92119906</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -15072,13 +15139,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>8596</v>
+        <v>8597</v>
       </c>
       <c r="D289" t="n">
         <v>1464</v>
       </c>
       <c r="E289" t="n">
-        <v>51997500</v>
+        <v>52030889</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -15225,13 +15292,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>26380</v>
+        <v>26382</v>
       </c>
       <c r="D292" t="n">
         <v>4941</v>
       </c>
       <c r="E292" t="n">
-        <v>53277812</v>
+        <v>53279978</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -15429,13 +15496,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>12554</v>
+        <v>12557</v>
       </c>
       <c r="D296" t="n">
         <v>1972</v>
       </c>
       <c r="E296" t="n">
-        <v>72247653</v>
+        <v>72254311</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -15531,13 +15598,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8791</v>
+        <v>8794</v>
       </c>
       <c r="D298" t="n">
         <v>1435</v>
       </c>
       <c r="E298" t="n">
-        <v>48986870</v>
+        <v>48990151</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -15684,13 +15751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>14967</v>
+        <v>14969</v>
       </c>
       <c r="D301" t="n">
         <v>3338</v>
       </c>
       <c r="E301" t="n">
-        <v>28523367</v>
+        <v>28523787</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -15990,13 +16057,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="D307" t="n">
         <v>479</v>
       </c>
       <c r="E307" t="n">
-        <v>11012288</v>
+        <v>11040040</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -16143,13 +16210,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>20221</v>
+        <v>20224</v>
       </c>
       <c r="D310" t="n">
         <v>4390</v>
       </c>
       <c r="E310" t="n">
-        <v>48565259</v>
+        <v>48570904</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -16347,13 +16414,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>9097</v>
+        <v>9100</v>
       </c>
       <c r="D314" t="n">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E314" t="n">
-        <v>43831884</v>
+        <v>43855722</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -16398,13 +16465,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>4099</v>
+        <v>4101</v>
       </c>
       <c r="D315" t="n">
         <v>780</v>
       </c>
       <c r="E315" t="n">
-        <v>21043263</v>
+        <v>21052619</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -16551,13 +16618,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="D318" t="n">
         <v>997</v>
       </c>
       <c r="E318" t="n">
-        <v>25811650</v>
+        <v>25819705</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -16653,13 +16720,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>74612</v>
+        <v>74628</v>
       </c>
       <c r="D320" t="n">
         <v>15898</v>
       </c>
       <c r="E320" t="n">
-        <v>131058874</v>
+        <v>131076321</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -16806,13 +16873,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D323" t="n">
         <v>9</v>
       </c>
       <c r="E323" t="n">
-        <v>119735</v>
+        <v>120225</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -16857,13 +16924,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D324" t="n">
         <v>27</v>
       </c>
       <c r="E324" t="n">
-        <v>1238184</v>
+        <v>1276470</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -16959,13 +17026,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>46080</v>
+        <v>46105</v>
       </c>
       <c r="D326" t="n">
-        <v>9061</v>
+        <v>9062</v>
       </c>
       <c r="E326" t="n">
-        <v>232034537</v>
+        <v>232347283</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -17112,13 +17179,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>23021</v>
+        <v>23041</v>
       </c>
       <c r="D329" t="n">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="E329" t="n">
-        <v>137516432</v>
+        <v>137896437</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -17214,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>5443</v>
+        <v>5447</v>
       </c>
       <c r="D331" t="n">
         <v>962</v>
       </c>
       <c r="E331" t="n">
-        <v>25014511</v>
+        <v>25034144</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -17265,13 +17332,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="D332" t="n">
         <v>440</v>
       </c>
       <c r="E332" t="n">
-        <v>12661164</v>
+        <v>12740871</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -17316,13 +17383,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>8528</v>
+        <v>8531</v>
       </c>
       <c r="D333" t="n">
         <v>1910</v>
       </c>
       <c r="E333" t="n">
-        <v>15433028</v>
+        <v>15433580</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -17622,13 +17689,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>42313</v>
+        <v>42320</v>
       </c>
       <c r="D339" t="n">
         <v>9403</v>
       </c>
       <c r="E339" t="n">
-        <v>76394986</v>
+        <v>76408173</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -17826,13 +17893,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>27776</v>
+        <v>27785</v>
       </c>
       <c r="D343" t="n">
-        <v>5350</v>
+        <v>5351</v>
       </c>
       <c r="E343" t="n">
-        <v>152973473</v>
+        <v>153077058</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -17979,13 +18046,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>14022</v>
+        <v>14023</v>
       </c>
       <c r="D346" t="n">
         <v>2654</v>
       </c>
       <c r="E346" t="n">
-        <v>79747306</v>
+        <v>79748152</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -18081,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="D348" t="n">
         <v>693</v>
       </c>
       <c r="E348" t="n">
-        <v>20645278</v>
+        <v>20650982</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18183,13 +18250,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>43416</v>
+        <v>43436</v>
       </c>
       <c r="D350" t="n">
         <v>9948</v>
       </c>
       <c r="E350" t="n">
-        <v>114551179</v>
+        <v>114592080</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -18336,13 +18403,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D353" t="n">
         <v>83</v>
       </c>
       <c r="E353" t="n">
-        <v>2849577</v>
+        <v>2868741</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -18387,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>19633</v>
+        <v>19638</v>
       </c>
       <c r="D354" t="n">
         <v>4001</v>
       </c>
       <c r="E354" t="n">
-        <v>102156958</v>
+        <v>102225449</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -18540,13 +18607,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>8490</v>
+        <v>8493</v>
       </c>
       <c r="D357" t="n">
         <v>1604</v>
       </c>
       <c r="E357" t="n">
-        <v>55239191</v>
+        <v>55255019</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -18693,13 +18760,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>12295</v>
+        <v>12302</v>
       </c>
       <c r="D360" t="n">
         <v>3489</v>
       </c>
       <c r="E360" t="n">
-        <v>77287069</v>
+        <v>77326885</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -18795,13 +18862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>39680</v>
+        <v>39687</v>
       </c>
       <c r="D362" t="n">
         <v>8713</v>
       </c>
       <c r="E362" t="n">
-        <v>66343993</v>
+        <v>66349539</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -18948,13 +19015,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>18292</v>
+        <v>18294</v>
       </c>
       <c r="D365" t="n">
         <v>3809</v>
       </c>
       <c r="E365" t="n">
-        <v>84183374</v>
+        <v>84186514</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -19050,13 +19117,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>8249</v>
+        <v>8252</v>
       </c>
       <c r="D367" t="n">
         <v>1595</v>
       </c>
       <c r="E367" t="n">
-        <v>44239217</v>
+        <v>44250443</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -19203,13 +19270,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D370" t="n">
         <v>246</v>
       </c>
       <c r="E370" t="n">
-        <v>5805688</v>
+        <v>5806399</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -19254,13 +19321,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>9298</v>
+        <v>9299</v>
       </c>
       <c r="D371" t="n">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="E371" t="n">
-        <v>17868989</v>
+        <v>17869109</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -19407,13 +19474,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="D374" t="n">
         <v>724</v>
       </c>
       <c r="E374" t="n">
-        <v>16154569</v>
+        <v>16159450</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -19458,13 +19525,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="D375" t="n">
         <v>323</v>
       </c>
       <c r="E375" t="n">
-        <v>6825290</v>
+        <v>6834889</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -19611,13 +19678,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>47293</v>
+        <v>47300</v>
       </c>
       <c r="D378" t="n">
         <v>10698</v>
       </c>
       <c r="E378" t="n">
-        <v>84060515</v>
+        <v>84071960</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -19764,13 +19831,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>24482</v>
+        <v>24486</v>
       </c>
       <c r="D381" t="n">
         <v>5080</v>
       </c>
       <c r="E381" t="n">
-        <v>124504625</v>
+        <v>124519347</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -19866,13 +19933,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>16234</v>
+        <v>16242</v>
       </c>
       <c r="D383" t="n">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="E383" t="n">
-        <v>76545810</v>
+        <v>76567437</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -20019,13 +20086,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>24836</v>
+        <v>24840</v>
       </c>
       <c r="D386" t="n">
         <v>5298</v>
       </c>
       <c r="E386" t="n">
-        <v>45753490</v>
+        <v>45760100</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -20223,13 +20290,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>13557</v>
+        <v>13560</v>
       </c>
       <c r="D390" t="n">
         <v>2752</v>
       </c>
       <c r="E390" t="n">
-        <v>62549440</v>
+        <v>62564131</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -20325,13 +20392,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>5247</v>
+        <v>5251</v>
       </c>
       <c r="D392" t="n">
         <v>1014</v>
       </c>
       <c r="E392" t="n">
-        <v>27030666</v>
+        <v>27051442</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -20427,13 +20494,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D394" t="n">
         <v>134</v>
       </c>
       <c r="E394" t="n">
-        <v>2372798</v>
+        <v>2375368</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -20478,13 +20545,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>63049</v>
+        <v>63063</v>
       </c>
       <c r="D395" t="n">
         <v>12271</v>
       </c>
       <c r="E395" t="n">
-        <v>99687048</v>
+        <v>99703113</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -20631,13 +20698,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>15638</v>
+        <v>15653</v>
       </c>
       <c r="D398" t="n">
         <v>3299</v>
       </c>
       <c r="E398" t="n">
-        <v>53560020</v>
+        <v>53642672</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -20733,13 +20800,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>14313</v>
+        <v>14325</v>
       </c>
       <c r="D400" t="n">
         <v>2825</v>
       </c>
       <c r="E400" t="n">
-        <v>38145200</v>
+        <v>38183615</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -20886,13 +20953,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>26035</v>
+        <v>26043</v>
       </c>
       <c r="D403" t="n">
         <v>3757</v>
       </c>
       <c r="E403" t="n">
-        <v>51384688</v>
+        <v>51393123</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -20988,13 +21055,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>5545</v>
+        <v>5546</v>
       </c>
       <c r="D405" t="n">
         <v>904</v>
       </c>
       <c r="E405" t="n">
-        <v>16145499</v>
+        <v>16146999</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -21090,13 +21157,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>8201</v>
+        <v>8205</v>
       </c>
       <c r="D407" t="n">
         <v>1273</v>
       </c>
       <c r="E407" t="n">
-        <v>20547156</v>
+        <v>20561656</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -21294,13 +21361,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>25393</v>
+        <v>25397</v>
       </c>
       <c r="D411" t="n">
         <v>5522</v>
       </c>
       <c r="E411" t="n">
-        <v>50684484</v>
+        <v>50686271</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -21447,13 +21514,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>10075</v>
+        <v>10076</v>
       </c>
       <c r="D414" t="n">
         <v>2102</v>
       </c>
       <c r="E414" t="n">
-        <v>50020756</v>
+        <v>50021743</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -21549,13 +21616,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>5383</v>
+        <v>5384</v>
       </c>
       <c r="D416" t="n">
         <v>1038</v>
       </c>
       <c r="E416" t="n">
-        <v>26025946</v>
+        <v>26027230</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -21651,13 +21718,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D418" t="n">
         <v>309</v>
       </c>
       <c r="E418" t="n">
-        <v>6040137</v>
+        <v>6041350</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -21753,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>142869</v>
+        <v>142895</v>
       </c>
       <c r="D420" t="n">
         <v>30569</v>
       </c>
       <c r="E420" t="n">
-        <v>244863526</v>
+        <v>244898140</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -21906,13 +21973,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D423" t="n">
         <v>208</v>
       </c>
       <c r="E423" t="n">
-        <v>10152491</v>
+        <v>10161498</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -21957,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>67849</v>
+        <v>67873</v>
       </c>
       <c r="D424" t="n">
         <v>13136</v>
       </c>
       <c r="E424" t="n">
-        <v>330211201</v>
+        <v>330469791</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22008,13 +22075,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D425" t="n">
         <v>57</v>
       </c>
       <c r="E425" t="n">
-        <v>8142355</v>
+        <v>8149721</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -22110,13 +22177,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>38739</v>
+        <v>38756</v>
       </c>
       <c r="D427" t="n">
-        <v>6907</v>
+        <v>6908</v>
       </c>
       <c r="E427" t="n">
-        <v>201094645</v>
+        <v>201145979</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -22212,13 +22279,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>4430</v>
+        <v>4432</v>
       </c>
       <c r="D429" t="n">
         <v>698</v>
       </c>
       <c r="E429" t="n">
-        <v>20671635</v>
+        <v>20672518</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
@@ -22314,13 +22381,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>42752</v>
+        <v>42762</v>
       </c>
       <c r="D431" t="n">
         <v>9200</v>
       </c>
       <c r="E431" t="n">
-        <v>75979354</v>
+        <v>75988335</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -22467,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>19515</v>
+        <v>19520</v>
       </c>
       <c r="D434" t="n">
         <v>4018</v>
       </c>
       <c r="E434" t="n">
-        <v>89381599</v>
+        <v>89397569</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22569,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>13924</v>
+        <v>13931</v>
       </c>
       <c r="D436" t="n">
         <v>2500</v>
       </c>
       <c r="E436" t="n">
-        <v>64471990</v>
+        <v>64514432</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22722,13 +22789,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>72080</v>
+        <v>72095</v>
       </c>
       <c r="D439" t="n">
-        <v>15797</v>
+        <v>15798</v>
       </c>
       <c r="E439" t="n">
-        <v>129272520</v>
+        <v>129283122</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -22875,13 +22942,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="D442" t="n">
         <v>171</v>
       </c>
       <c r="E442" t="n">
-        <v>7804140</v>
+        <v>7818470</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -22926,13 +22993,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>30796</v>
+        <v>30801</v>
       </c>
       <c r="D443" t="n">
         <v>6188</v>
       </c>
       <c r="E443" t="n">
-        <v>156390410</v>
+        <v>156423484</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -23079,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>14461</v>
+        <v>14468</v>
       </c>
       <c r="D446" t="n">
         <v>2800</v>
       </c>
       <c r="E446" t="n">
-        <v>84806097</v>
+        <v>84855665</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23232,13 +23299,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>30814</v>
+        <v>30822</v>
       </c>
       <c r="D449" t="n">
         <v>6834</v>
       </c>
       <c r="E449" t="n">
-        <v>55837367</v>
+        <v>55846575</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -23436,13 +23503,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>11839</v>
+        <v>11840</v>
       </c>
       <c r="D453" t="n">
         <v>2375</v>
       </c>
       <c r="E453" t="n">
-        <v>63184247</v>
+        <v>63186232</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -23691,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>86453</v>
+        <v>86478</v>
       </c>
       <c r="D458" t="n">
-        <v>16360</v>
+        <v>16364</v>
       </c>
       <c r="E458" t="n">
-        <v>149847361</v>
+        <v>149869948</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -23895,13 +23962,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>33534</v>
+        <v>33556</v>
       </c>
       <c r="D462" t="n">
         <v>7024</v>
       </c>
       <c r="E462" t="n">
-        <v>149767096</v>
+        <v>149964212</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -23997,13 +24064,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>33134</v>
+        <v>33155</v>
       </c>
       <c r="D464" t="n">
         <v>5981</v>
       </c>
       <c r="E464" t="n">
-        <v>139825680</v>
+        <v>139893097</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -24099,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D466" t="n">
         <v>238</v>
       </c>
       <c r="E466" t="n">
-        <v>5621489</v>
+        <v>5625881</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24150,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>160349</v>
+        <v>160391</v>
       </c>
       <c r="D467" t="n">
         <v>27239</v>
       </c>
       <c r="E467" t="n">
-        <v>283108320</v>
+        <v>283141549</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24303,13 +24370,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D470" t="n">
         <v>157</v>
       </c>
       <c r="E470" t="n">
-        <v>10097549</v>
+        <v>10106054</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -24354,13 +24421,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>69562</v>
+        <v>69625</v>
       </c>
       <c r="D471" t="n">
-        <v>11936</v>
+        <v>11938</v>
       </c>
       <c r="E471" t="n">
-        <v>352166845</v>
+        <v>352859174</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -24456,13 +24523,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>70985</v>
+        <v>71014</v>
       </c>
       <c r="D473" t="n">
         <v>11458</v>
       </c>
       <c r="E473" t="n">
-        <v>374482191</v>
+        <v>374745903</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -24558,13 +24625,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D475" t="n">
         <v>423</v>
       </c>
       <c r="E475" t="n">
-        <v>10089694</v>
+        <v>10091473</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -24609,13 +24676,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>402872</v>
+        <v>403077</v>
       </c>
       <c r="D476" t="n">
-        <v>70294</v>
+        <v>70300</v>
       </c>
       <c r="E476" t="n">
-        <v>706172525</v>
+        <v>706434148</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -24711,13 +24778,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D478" t="n">
         <v>77</v>
       </c>
       <c r="E478" t="n">
-        <v>2489858</v>
+        <v>2491174</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -24864,13 +24931,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>3625</v>
+        <v>3635</v>
       </c>
       <c r="D481" t="n">
         <v>520</v>
       </c>
       <c r="E481" t="n">
-        <v>59697150</v>
+        <v>59802474</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -24915,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D482" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E482" t="n">
-        <v>4905648</v>
+        <v>4908574</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -24966,13 +25033,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>271248</v>
+        <v>271485</v>
       </c>
       <c r="D483" t="n">
-        <v>42379</v>
+        <v>42381</v>
       </c>
       <c r="E483" t="n">
-        <v>1576823368</v>
+        <v>1579426997</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -25017,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="D484" t="n">
         <v>416</v>
       </c>
       <c r="E484" t="n">
-        <v>76885964</v>
+        <v>77071565</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25068,13 +25135,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D485" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E485" t="n">
-        <v>12858472</v>
+        <v>13014239</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25119,13 +25186,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>212905</v>
+        <v>213122</v>
       </c>
       <c r="D486" t="n">
-        <v>33484</v>
+        <v>33497</v>
       </c>
       <c r="E486" t="n">
-        <v>1526856334</v>
+        <v>1529088961</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -25221,13 +25288,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="D488" t="n">
         <v>605</v>
       </c>
       <c r="E488" t="n">
-        <v>7752603</v>
+        <v>7762603</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -25323,13 +25390,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>11312</v>
+        <v>11323</v>
       </c>
       <c r="D490" t="n">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E490" t="n">
-        <v>63501249</v>
+        <v>63565852</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -25476,13 +25543,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>101352</v>
+        <v>101382</v>
       </c>
       <c r="D493" t="n">
-        <v>19001</v>
+        <v>19002</v>
       </c>
       <c r="E493" t="n">
-        <v>176131328</v>
+        <v>176176334</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -25629,13 +25696,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D496" t="n">
         <v>114</v>
       </c>
       <c r="E496" t="n">
-        <v>4845183</v>
+        <v>4846888</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -25680,13 +25747,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>39242</v>
+        <v>39254</v>
       </c>
       <c r="D497" t="n">
-        <v>7948</v>
+        <v>7949</v>
       </c>
       <c r="E497" t="n">
-        <v>183969528</v>
+        <v>184025009</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -25833,13 +25900,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>36503</v>
+        <v>36520</v>
       </c>
       <c r="D500" t="n">
-        <v>6533</v>
+        <v>6534</v>
       </c>
       <c r="E500" t="n">
-        <v>160372827</v>
+        <v>160414324</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -26037,13 +26104,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>179146</v>
+        <v>179195</v>
       </c>
       <c r="D504" t="n">
         <v>27637</v>
       </c>
       <c r="E504" t="n">
-        <v>327782220</v>
+        <v>327841706</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -26190,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D507" t="n">
         <v>113</v>
       </c>
       <c r="E507" t="n">
-        <v>4621414</v>
+        <v>4627970</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26241,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>59020</v>
+        <v>59061</v>
       </c>
       <c r="D508" t="n">
-        <v>11205</v>
+        <v>11206</v>
       </c>
       <c r="E508" t="n">
-        <v>273012028</v>
+        <v>273362889</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26343,13 +26410,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>67793</v>
+        <v>67830</v>
       </c>
       <c r="D510" t="n">
-        <v>10852</v>
+        <v>10854</v>
       </c>
       <c r="E510" t="n">
-        <v>259047258</v>
+        <v>259440557</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -26445,13 +26512,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="D512" t="n">
         <v>535</v>
       </c>
       <c r="E512" t="n">
-        <v>11783047</v>
+        <v>11783065</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -26496,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>139084</v>
+        <v>139135</v>
       </c>
       <c r="D513" t="n">
-        <v>23542</v>
+        <v>23543</v>
       </c>
       <c r="E513" t="n">
-        <v>241637265</v>
+        <v>241666224</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -26598,13 +26665,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D515" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E515" t="n">
-        <v>4723471</v>
+        <v>4743219</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -26649,13 +26716,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>47252</v>
+        <v>47270</v>
       </c>
       <c r="D516" t="n">
         <v>8737</v>
       </c>
       <c r="E516" t="n">
-        <v>219610989</v>
+        <v>219766149</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -26802,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>53374</v>
+        <v>53413</v>
       </c>
       <c r="D519" t="n">
-        <v>8721</v>
+        <v>8723</v>
       </c>
       <c r="E519" t="n">
-        <v>227158076</v>
+        <v>227448831</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -26904,13 +26971,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="D521" t="n">
         <v>460</v>
       </c>
       <c r="E521" t="n">
-        <v>14405642</v>
+        <v>14515301</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -26955,13 +27022,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>104667</v>
+        <v>104699</v>
       </c>
       <c r="D522" t="n">
         <v>17591</v>
       </c>
       <c r="E522" t="n">
-        <v>188463954</v>
+        <v>188486182</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -27057,13 +27124,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D524" t="n">
         <v>128</v>
       </c>
       <c r="E524" t="n">
-        <v>6394859</v>
+        <v>6399060</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -27108,13 +27175,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>34390</v>
+        <v>34405</v>
       </c>
       <c r="D525" t="n">
         <v>7078</v>
       </c>
       <c r="E525" t="n">
-        <v>152053625</v>
+        <v>152182319</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -27210,13 +27277,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>40283</v>
+        <v>40308</v>
       </c>
       <c r="D527" t="n">
-        <v>6826</v>
+        <v>6827</v>
       </c>
       <c r="E527" t="n">
-        <v>152426217</v>
+        <v>152709182</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -27363,13 +27430,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>95932</v>
+        <v>95968</v>
       </c>
       <c r="D530" t="n">
-        <v>19212</v>
+        <v>19213</v>
       </c>
       <c r="E530" t="n">
-        <v>162842123</v>
+        <v>162885787</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -27516,13 +27583,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>42006</v>
+        <v>42024</v>
       </c>
       <c r="D533" t="n">
         <v>8531</v>
       </c>
       <c r="E533" t="n">
-        <v>201475096</v>
+        <v>201546255</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -27567,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D534" t="n">
         <v>27</v>
       </c>
       <c r="E534" t="n">
-        <v>1384726</v>
+        <v>1386433</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -27618,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>36052</v>
+        <v>36072</v>
       </c>
       <c r="D535" t="n">
-        <v>6637</v>
+        <v>6638</v>
       </c>
       <c r="E535" t="n">
-        <v>157504771</v>
+        <v>157567170</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -27822,13 +27889,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>73082</v>
+        <v>73092</v>
       </c>
       <c r="D539" t="n">
         <v>17469</v>
       </c>
       <c r="E539" t="n">
-        <v>110017879</v>
+        <v>110032943</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -27873,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D540" t="n">
         <v>11</v>
       </c>
       <c r="E540" t="n">
-        <v>59405</v>
+        <v>59870</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28077,13 +28144,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>22684</v>
+        <v>22688</v>
       </c>
       <c r="D544" t="n">
         <v>6137</v>
       </c>
       <c r="E544" t="n">
-        <v>74290393</v>
+        <v>74295547</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -28179,13 +28246,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>6660</v>
+        <v>6661</v>
       </c>
       <c r="D546" t="n">
         <v>1642</v>
       </c>
       <c r="E546" t="n">
-        <v>25377158</v>
+        <v>25466166</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -28434,13 +28501,13 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>34288</v>
+        <v>34295</v>
       </c>
       <c r="D551" t="n">
         <v>7104</v>
       </c>
       <c r="E551" t="n">
-        <v>53674301</v>
+        <v>53679118</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -28587,13 +28654,13 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>14786</v>
+        <v>14797</v>
       </c>
       <c r="D554" t="n">
         <v>3214</v>
       </c>
       <c r="E554" t="n">
-        <v>51095506</v>
+        <v>51160937</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -28689,13 +28756,13 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>10312</v>
+        <v>10315</v>
       </c>
       <c r="D556" t="n">
         <v>2096</v>
       </c>
       <c r="E556" t="n">
-        <v>29464829</v>
+        <v>29467401</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -28791,13 +28858,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D558" t="n">
         <v>127</v>
       </c>
       <c r="E558" t="n">
-        <v>1427941</v>
+        <v>1428247</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -28842,13 +28909,13 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>43569</v>
+        <v>43570</v>
       </c>
       <c r="D559" t="n">
         <v>5415</v>
       </c>
       <c r="E559" t="n">
-        <v>101044039</v>
+        <v>101044579</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -28893,13 +28960,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="D560" t="n">
         <v>681</v>
       </c>
       <c r="E560" t="n">
-        <v>12174839</v>
+        <v>12176619</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -29097,13 +29164,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>48036</v>
+        <v>48044</v>
       </c>
       <c r="D564" t="n">
         <v>10836</v>
       </c>
       <c r="E564" t="n">
-        <v>89316237</v>
+        <v>89325400</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -29301,13 +29368,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>25960</v>
+        <v>25969</v>
       </c>
       <c r="D568" t="n">
         <v>4892</v>
       </c>
       <c r="E568" t="n">
-        <v>138829456</v>
+        <v>138848023</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -29403,13 +29470,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>10760</v>
+        <v>10764</v>
       </c>
       <c r="D570" t="n">
         <v>1917</v>
       </c>
       <c r="E570" t="n">
-        <v>72044873</v>
+        <v>72123841</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -29505,13 +29572,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D572" t="n">
         <v>318</v>
       </c>
       <c r="E572" t="n">
-        <v>8239661</v>
+        <v>8242016</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -29556,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>33169</v>
+        <v>33175</v>
       </c>
       <c r="D573" t="n">
         <v>7179</v>
       </c>
       <c r="E573" t="n">
-        <v>60909259</v>
+        <v>60911652</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29658,13 +29725,13 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>14569</v>
+        <v>14576</v>
       </c>
       <c r="D575" t="n">
         <v>3111</v>
       </c>
       <c r="E575" t="n">
-        <v>65720448</v>
+        <v>65729880</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -29760,13 +29827,13 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>7433</v>
+        <v>7435</v>
       </c>
       <c r="D577" t="n">
         <v>1423</v>
       </c>
       <c r="E577" t="n">
-        <v>34329535</v>
+        <v>34332428</v>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -29913,13 +29980,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>30286</v>
+        <v>30293</v>
       </c>
       <c r="D580" t="n">
         <v>6691</v>
       </c>
       <c r="E580" t="n">
-        <v>64248161</v>
+        <v>64260158</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -30168,13 +30235,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>14690</v>
+        <v>14694</v>
       </c>
       <c r="D585" t="n">
         <v>2852</v>
       </c>
       <c r="E585" t="n">
-        <v>77086444</v>
+        <v>77113870</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -30270,13 +30337,13 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>3616</v>
+        <v>3620</v>
       </c>
       <c r="D587" t="n">
         <v>674</v>
       </c>
       <c r="E587" t="n">
-        <v>25648594</v>
+        <v>25900369</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -30321,13 +30388,13 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D588" t="n">
         <v>153</v>
       </c>
       <c r="E588" t="n">
-        <v>1740873</v>
+        <v>1757357</v>
       </c>
       <c r="F588" t="inlineStr">
         <is>
@@ -30423,13 +30490,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>16256</v>
+        <v>16257</v>
       </c>
       <c r="D590" t="n">
         <v>3655</v>
       </c>
       <c r="E590" t="n">
-        <v>33117139</v>
+        <v>33117600</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -30576,13 +30643,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D593" t="n">
         <v>40</v>
       </c>
       <c r="E593" t="n">
-        <v>1670468</v>
+        <v>1671870</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
@@ -30627,13 +30694,13 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>6453</v>
+        <v>6456</v>
       </c>
       <c r="D594" t="n">
         <v>1369</v>
       </c>
       <c r="E594" t="n">
-        <v>29252728</v>
+        <v>29263740</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
@@ -30678,13 +30745,13 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="D595" t="n">
         <v>463</v>
       </c>
       <c r="E595" t="n">
-        <v>11946144</v>
+        <v>11951931</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -30780,13 +30847,13 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D597" t="n">
         <v>95</v>
       </c>
       <c r="E597" t="n">
-        <v>1706854</v>
+        <v>1708956</v>
       </c>
       <c r="F597" t="inlineStr">
         <is>
@@ -30831,13 +30898,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>65005</v>
+        <v>65019</v>
       </c>
       <c r="D598" t="n">
         <v>14264</v>
       </c>
       <c r="E598" t="n">
-        <v>119566517</v>
+        <v>119591979</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -31035,13 +31102,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>31056</v>
+        <v>31066</v>
       </c>
       <c r="D602" t="n">
         <v>6072</v>
       </c>
       <c r="E602" t="n">
-        <v>164575753</v>
+        <v>164607612</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -31137,13 +31204,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>14746</v>
+        <v>14751</v>
       </c>
       <c r="D604" t="n">
         <v>2682</v>
       </c>
       <c r="E604" t="n">
-        <v>83158336</v>
+        <v>83198975</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -31188,13 +31255,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D605" t="n">
         <v>150</v>
       </c>
       <c r="E605" t="n">
-        <v>1114868</v>
+        <v>1115779</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -31239,13 +31306,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="D606" t="n">
         <v>429</v>
       </c>
       <c r="E606" t="n">
-        <v>11680987</v>
+        <v>11684305</v>
       </c>
       <c r="F606" t="inlineStr">
         <is>
@@ -31290,13 +31357,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>24308</v>
+        <v>24310</v>
       </c>
       <c r="D607" t="n">
         <v>5506</v>
       </c>
       <c r="E607" t="n">
-        <v>41636406</v>
+        <v>41637126</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
@@ -31494,13 +31561,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>9333</v>
+        <v>9340</v>
       </c>
       <c r="D611" t="n">
         <v>1964</v>
       </c>
       <c r="E611" t="n">
-        <v>45966110</v>
+        <v>45983411</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -31596,13 +31663,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D613" t="n">
         <v>630</v>
       </c>
       <c r="E613" t="n">
-        <v>19790660</v>
+        <v>19791146</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -31698,13 +31765,13 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D615" t="n">
         <v>142</v>
       </c>
       <c r="E615" t="n">
-        <v>3112796</v>
+        <v>3116126</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
@@ -31749,13 +31816,13 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>58820</v>
+        <v>58825</v>
       </c>
       <c r="D616" t="n">
-        <v>13720</v>
+        <v>13721</v>
       </c>
       <c r="E616" t="n">
-        <v>103795160</v>
+        <v>103798419</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
@@ -31902,13 +31969,13 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D619" t="n">
         <v>77</v>
       </c>
       <c r="E619" t="n">
-        <v>2961963</v>
+        <v>2963771</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -31953,13 +32020,13 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>29356</v>
+        <v>29366</v>
       </c>
       <c r="D620" t="n">
         <v>5922</v>
       </c>
       <c r="E620" t="n">
-        <v>159398310</v>
+        <v>159432221</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
@@ -32004,13 +32071,13 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D621" t="n">
         <v>14</v>
       </c>
       <c r="E621" t="n">
-        <v>2403981</v>
+        <v>2510298</v>
       </c>
       <c r="F621" t="inlineStr">
         <is>
@@ -32055,13 +32122,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>9179</v>
+        <v>9182</v>
       </c>
       <c r="D622" t="n">
         <v>1775</v>
       </c>
       <c r="E622" t="n">
-        <v>55629437</v>
+        <v>55639215</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -32106,13 +32173,13 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D623" t="n">
         <v>308</v>
       </c>
       <c r="E623" t="n">
-        <v>3726092</v>
+        <v>3727956</v>
       </c>
       <c r="F623" t="inlineStr">
         <is>
@@ -32157,13 +32224,13 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D624" t="n">
         <v>306</v>
       </c>
       <c r="E624" t="n">
-        <v>7462069</v>
+        <v>7463023</v>
       </c>
       <c r="F624" t="inlineStr">
         <is>
@@ -32208,13 +32275,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>16961</v>
+        <v>16964</v>
       </c>
       <c r="D625" t="n">
         <v>3935</v>
       </c>
       <c r="E625" t="n">
-        <v>31930354</v>
+        <v>31930942</v>
       </c>
       <c r="F625" t="inlineStr">
         <is>
@@ -32310,13 +32377,13 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>7019</v>
+        <v>7020</v>
       </c>
       <c r="D627" t="n">
         <v>1438</v>
       </c>
       <c r="E627" t="n">
-        <v>34104699</v>
+        <v>34107052</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
@@ -32412,13 +32479,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>3842</v>
+        <v>3844</v>
       </c>
       <c r="D629" t="n">
         <v>711</v>
       </c>
       <c r="E629" t="n">
-        <v>20054736</v>
+        <v>20069665</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
@@ -32565,13 +32632,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D632" t="n">
         <v>105</v>
       </c>
       <c r="E632" t="n">
-        <v>2333214</v>
+        <v>2333559</v>
       </c>
       <c r="F632" t="inlineStr">
         <is>
@@ -32616,13 +32683,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>8289</v>
+        <v>8290</v>
       </c>
       <c r="D633" t="n">
         <v>1864</v>
       </c>
       <c r="E633" t="n">
-        <v>14507138</v>
+        <v>14507440</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -32973,13 +33040,13 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>19493</v>
+        <v>19495</v>
       </c>
       <c r="D640" t="n">
         <v>4548</v>
       </c>
       <c r="E640" t="n">
-        <v>34360298</v>
+        <v>34361044</v>
       </c>
       <c r="F640" t="inlineStr">
         <is>
@@ -33177,13 +33244,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>8619</v>
+        <v>8624</v>
       </c>
       <c r="D644" t="n">
         <v>1844</v>
       </c>
       <c r="E644" t="n">
-        <v>43478464</v>
+        <v>43505900</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -33330,13 +33397,13 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D647" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E647" t="n">
-        <v>691741</v>
+        <v>734853</v>
       </c>
       <c r="F647" t="inlineStr">
         <is>
@@ -33432,13 +33499,13 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>43103</v>
+        <v>43111</v>
       </c>
       <c r="D649" t="n">
         <v>9315</v>
       </c>
       <c r="E649" t="n">
-        <v>78963132</v>
+        <v>78974902</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -33585,13 +33652,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D652" t="n">
         <v>69</v>
       </c>
       <c r="E652" t="n">
-        <v>2514375</v>
+        <v>2515975</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -33636,13 +33703,13 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>15551</v>
+        <v>15562</v>
       </c>
       <c r="D653" t="n">
         <v>2908</v>
       </c>
       <c r="E653" t="n">
-        <v>74998192</v>
+        <v>75080437</v>
       </c>
       <c r="F653" t="inlineStr">
         <is>
@@ -33738,13 +33805,13 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>7149</v>
+        <v>7153</v>
       </c>
       <c r="D655" t="n">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E655" t="n">
-        <v>36784634</v>
+        <v>36804206</v>
       </c>
       <c r="F655" t="inlineStr">
         <is>
@@ -33789,13 +33856,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D656" t="n">
         <v>280</v>
       </c>
       <c r="E656" t="n">
-        <v>4448686</v>
+        <v>4449670</v>
       </c>
       <c r="F656" t="inlineStr">
         <is>
@@ -33840,13 +33907,13 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D657" t="n">
         <v>180</v>
       </c>
       <c r="E657" t="n">
-        <v>4215971</v>
+        <v>4216471</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -33891,13 +33958,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>160719</v>
+        <v>160750</v>
       </c>
       <c r="D658" t="n">
         <v>36172</v>
       </c>
       <c r="E658" t="n">
-        <v>275420685</v>
+        <v>275457809</v>
       </c>
       <c r="F658" t="inlineStr">
         <is>
@@ -33993,13 +34060,13 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D660" t="n">
         <v>16</v>
       </c>
       <c r="E660" t="n">
-        <v>309349</v>
+        <v>310280</v>
       </c>
       <c r="F660" t="inlineStr">
         <is>
@@ -34248,13 +34315,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>70433</v>
+        <v>70466</v>
       </c>
       <c r="D665" t="n">
-        <v>14331</v>
+        <v>14332</v>
       </c>
       <c r="E665" t="n">
-        <v>351173929</v>
+        <v>351473075</v>
       </c>
       <c r="F665" t="inlineStr">
         <is>
@@ -34401,13 +34468,13 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>37961</v>
+        <v>37977</v>
       </c>
       <c r="D668" t="n">
-        <v>7151</v>
+        <v>7152</v>
       </c>
       <c r="E668" t="n">
-        <v>195385408</v>
+        <v>195510055</v>
       </c>
       <c r="F668" t="inlineStr">
         <is>
@@ -34554,13 +34621,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>9072</v>
+        <v>9083</v>
       </c>
       <c r="D671" t="n">
         <v>1989</v>
       </c>
       <c r="E671" t="n">
-        <v>59502197</v>
+        <v>59541530</v>
       </c>
       <c r="F671" t="inlineStr">
         <is>
@@ -34656,13 +34723,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="D673" t="n">
         <v>817</v>
       </c>
       <c r="E673" t="n">
-        <v>19375887</v>
+        <v>19377591</v>
       </c>
       <c r="F673" t="inlineStr">
         <is>
@@ -34707,13 +34774,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>23856</v>
+        <v>23859</v>
       </c>
       <c r="D674" t="n">
         <v>5331</v>
       </c>
       <c r="E674" t="n">
-        <v>41037757</v>
+        <v>41041524</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -34860,13 +34927,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>10708</v>
+        <v>10710</v>
       </c>
       <c r="D677" t="n">
         <v>2217</v>
       </c>
       <c r="E677" t="n">
-        <v>53983732</v>
+        <v>53988221</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
@@ -34962,13 +35029,13 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>4434</v>
+        <v>4436</v>
       </c>
       <c r="D679" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E679" t="n">
-        <v>20751246</v>
+        <v>20816394</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -35064,13 +35131,13 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D681" t="n">
         <v>154</v>
       </c>
       <c r="E681" t="n">
-        <v>3858477</v>
+        <v>3872028</v>
       </c>
       <c r="F681" t="inlineStr">
         <is>
@@ -35115,13 +35182,13 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>38352</v>
+        <v>38358</v>
       </c>
       <c r="D682" t="n">
         <v>8755</v>
       </c>
       <c r="E682" t="n">
-        <v>66750442</v>
+        <v>66752462</v>
       </c>
       <c r="F682" t="inlineStr">
         <is>
@@ -35319,13 +35386,13 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>18547</v>
+        <v>18555</v>
       </c>
       <c r="D686" t="n">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="E686" t="n">
-        <v>94875990</v>
+        <v>94899909</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -35421,13 +35488,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>6453</v>
+        <v>6455</v>
       </c>
       <c r="D688" t="n">
         <v>1255</v>
       </c>
       <c r="E688" t="n">
-        <v>39341822</v>
+        <v>39344350</v>
       </c>
       <c r="F688" t="inlineStr">
         <is>
@@ -35574,13 +35641,13 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>24091</v>
+        <v>24097</v>
       </c>
       <c r="D691" t="n">
         <v>5602</v>
       </c>
       <c r="E691" t="n">
-        <v>40777419</v>
+        <v>40791773</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -35727,13 +35794,13 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>10648</v>
+        <v>10655</v>
       </c>
       <c r="D694" t="n">
         <v>2188</v>
       </c>
       <c r="E694" t="n">
-        <v>47598581</v>
+        <v>47632969</v>
       </c>
       <c r="F694" t="inlineStr">
         <is>
@@ -35829,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>4403</v>
+        <v>4408</v>
       </c>
       <c r="D696" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E696" t="n">
-        <v>22351581</v>
+        <v>22370419</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -35880,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D697" t="n">
         <v>202</v>
       </c>
       <c r="E697" t="n">
-        <v>2552488</v>
+        <v>2555503</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -35931,13 +35998,13 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D698" t="n">
         <v>172</v>
       </c>
       <c r="E698" t="n">
-        <v>3780301</v>
+        <v>3789845</v>
       </c>
       <c r="F698" t="inlineStr">
         <is>
@@ -35982,13 +36049,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>64280</v>
+        <v>64289</v>
       </c>
       <c r="D699" t="n">
-        <v>14740</v>
+        <v>14741</v>
       </c>
       <c r="E699" t="n">
-        <v>108842475</v>
+        <v>108847141</v>
       </c>
       <c r="F699" t="inlineStr">
         <is>
@@ -36135,13 +36202,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>35278</v>
+        <v>35285</v>
       </c>
       <c r="D702" t="n">
         <v>6900</v>
       </c>
       <c r="E702" t="n">
-        <v>178701744</v>
+        <v>178730410</v>
       </c>
       <c r="F702" t="inlineStr">
         <is>
@@ -36237,13 +36304,13 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>13412</v>
+        <v>13416</v>
       </c>
       <c r="D704" t="n">
         <v>2460</v>
       </c>
       <c r="E704" t="n">
-        <v>75142098</v>
+        <v>75180064</v>
       </c>
       <c r="F704" t="inlineStr">
         <is>
@@ -36339,13 +36406,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D706" t="n">
         <v>533</v>
       </c>
       <c r="E706" t="n">
-        <v>4171992</v>
+        <v>4175081</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -36645,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>11652</v>
+        <v>11655</v>
       </c>
       <c r="D712" t="n">
         <v>2499</v>
       </c>
       <c r="E712" t="n">
-        <v>56975037</v>
+        <v>56997417</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -36900,13 +36967,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D717" t="n">
         <v>236</v>
       </c>
       <c r="E717" t="n">
-        <v>5069328</v>
+        <v>5071645</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -36951,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>14956</v>
+        <v>14957</v>
       </c>
       <c r="D718" t="n">
         <v>3471</v>
       </c>
       <c r="E718" t="n">
-        <v>23433582</v>
+        <v>23434206</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -37155,13 +37222,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="D722" t="n">
         <v>569</v>
       </c>
       <c r="E722" t="n">
-        <v>13979830</v>
+        <v>13981249</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -37308,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>37194</v>
+        <v>37198</v>
       </c>
       <c r="D725" t="n">
         <v>7908</v>
       </c>
       <c r="E725" t="n">
-        <v>65191019</v>
+        <v>65192608</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -37461,13 +37528,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D728" t="n">
         <v>25</v>
       </c>
       <c r="E728" t="n">
-        <v>1618239</v>
+        <v>1629180</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
@@ -37512,13 +37579,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>15202</v>
+        <v>15209</v>
       </c>
       <c r="D729" t="n">
         <v>2822</v>
       </c>
       <c r="E729" t="n">
-        <v>75137035</v>
+        <v>75168542</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -37614,13 +37681,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>9785</v>
+        <v>9786</v>
       </c>
       <c r="D731" t="n">
         <v>1698</v>
       </c>
       <c r="E731" t="n">
-        <v>45056305</v>
+        <v>45058884</v>
       </c>
       <c r="F731" t="inlineStr">
         <is>
@@ -37716,13 +37783,13 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D733" t="n">
         <v>235</v>
       </c>
       <c r="E733" t="n">
-        <v>4053788</v>
+        <v>4061309</v>
       </c>
       <c r="F733" t="inlineStr">
         <is>
@@ -37818,13 +37885,13 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>26387</v>
+        <v>26392</v>
       </c>
       <c r="D735" t="n">
         <v>5721</v>
       </c>
       <c r="E735" t="n">
-        <v>50805592</v>
+        <v>50817849</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
@@ -38073,13 +38140,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="D740" t="n">
         <v>669</v>
       </c>
       <c r="E740" t="n">
-        <v>21939382</v>
+        <v>21945806</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
@@ -38277,13 +38344,13 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>74433</v>
+        <v>74444</v>
       </c>
       <c r="D744" t="n">
-        <v>15651</v>
+        <v>15652</v>
       </c>
       <c r="E744" t="n">
-        <v>121453184</v>
+        <v>121463126</v>
       </c>
       <c r="F744" t="inlineStr">
         <is>
@@ -38481,13 +38548,13 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>35279</v>
+        <v>35286</v>
       </c>
       <c r="D748" t="n">
         <v>6879</v>
       </c>
       <c r="E748" t="n">
-        <v>156311953</v>
+        <v>156361362</v>
       </c>
       <c r="F748" t="inlineStr">
         <is>
@@ -38583,13 +38650,13 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>17638</v>
+        <v>17642</v>
       </c>
       <c r="D750" t="n">
         <v>3248</v>
       </c>
       <c r="E750" t="n">
-        <v>81291664</v>
+        <v>81306058</v>
       </c>
       <c r="F750" t="inlineStr">
         <is>
@@ -38736,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="D753" t="n">
         <v>419</v>
       </c>
       <c r="E753" t="n">
-        <v>8459279</v>
+        <v>8474530</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -38787,13 +38854,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>16818</v>
+        <v>16825</v>
       </c>
       <c r="D754" t="n">
         <v>3858</v>
       </c>
       <c r="E754" t="n">
-        <v>30174205</v>
+        <v>30183307</v>
       </c>
       <c r="F754" t="inlineStr">
         <is>
@@ -38991,13 +39058,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="D758" t="n">
         <v>622</v>
       </c>
       <c r="E758" t="n">
-        <v>15223098</v>
+        <v>15236662</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -39042,13 +39109,13 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D759" t="n">
         <v>365</v>
       </c>
       <c r="E759" t="n">
-        <v>6977834</v>
+        <v>6986453</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -39093,13 +39160,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D760" t="n">
         <v>127</v>
       </c>
       <c r="E760" t="n">
-        <v>3006943</v>
+        <v>3018037</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -39144,13 +39211,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>129752</v>
+        <v>129773</v>
       </c>
       <c r="D761" t="n">
         <v>28570</v>
       </c>
       <c r="E761" t="n">
-        <v>201674591</v>
+        <v>201684876</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -39399,13 +39466,13 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>56718</v>
+        <v>56748</v>
       </c>
       <c r="D766" t="n">
-        <v>11211</v>
+        <v>11212</v>
       </c>
       <c r="E766" t="n">
-        <v>275272465</v>
+        <v>275531577</v>
       </c>
       <c r="F766" t="inlineStr">
         <is>
@@ -39552,13 +39619,13 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>35653</v>
+        <v>35675</v>
       </c>
       <c r="D769" t="n">
-        <v>6766</v>
+        <v>6767</v>
       </c>
       <c r="E769" t="n">
-        <v>167152464</v>
+        <v>167313066</v>
       </c>
       <c r="F769" t="inlineStr">
         <is>
@@ -39756,13 +39823,13 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>5249</v>
+        <v>5250</v>
       </c>
       <c r="D773" t="n">
         <v>835</v>
       </c>
       <c r="E773" t="n">
-        <v>19632701</v>
+        <v>19632809</v>
       </c>
       <c r="F773" t="inlineStr">
         <is>
@@ -39807,13 +39874,13 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>27818</v>
+        <v>27829</v>
       </c>
       <c r="D774" t="n">
-        <v>5390</v>
+        <v>5391</v>
       </c>
       <c r="E774" t="n">
-        <v>56816241</v>
+        <v>56836426</v>
       </c>
       <c r="F774" t="inlineStr">
         <is>
@@ -40011,13 +40078,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>12856</v>
+        <v>12868</v>
       </c>
       <c r="D778" t="n">
         <v>2044</v>
       </c>
       <c r="E778" t="n">
-        <v>74187888</v>
+        <v>74233594</v>
       </c>
       <c r="F778" t="inlineStr">
         <is>
@@ -40164,13 +40231,13 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>4271</v>
+        <v>4273</v>
       </c>
       <c r="D781" t="n">
         <v>691</v>
       </c>
       <c r="E781" t="n">
-        <v>27216736</v>
+        <v>27220057</v>
       </c>
       <c r="F781" t="inlineStr">
         <is>
@@ -40266,13 +40333,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D783" t="n">
         <v>81</v>
       </c>
       <c r="E783" t="n">
-        <v>639740</v>
+        <v>643434</v>
       </c>
       <c r="F783" t="inlineStr">
         <is>
@@ -40368,13 +40435,13 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D785" t="n">
         <v>146</v>
       </c>
       <c r="E785" t="n">
-        <v>4664849</v>
+        <v>4696933</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -40419,13 +40486,13 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>132127</v>
+        <v>132159</v>
       </c>
       <c r="D786" t="n">
-        <v>28148</v>
+        <v>28150</v>
       </c>
       <c r="E786" t="n">
-        <v>210005060</v>
+        <v>210083561</v>
       </c>
       <c r="F786" t="inlineStr">
         <is>
@@ -40725,13 +40792,13 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>61663</v>
+        <v>61689</v>
       </c>
       <c r="D792" t="n">
         <v>11578</v>
       </c>
       <c r="E792" t="n">
-        <v>298035850</v>
+        <v>298117612</v>
       </c>
       <c r="F792" t="inlineStr">
         <is>
@@ -40878,13 +40945,13 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>42686</v>
+        <v>42697</v>
       </c>
       <c r="D795" t="n">
-        <v>7424</v>
+        <v>7425</v>
       </c>
       <c r="E795" t="n">
-        <v>201697084</v>
+        <v>201802825</v>
       </c>
       <c r="F795" t="inlineStr">
         <is>
@@ -40929,13 +40996,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="D796" t="n">
         <v>585</v>
       </c>
       <c r="E796" t="n">
-        <v>10380407</v>
+        <v>10381570</v>
       </c>
       <c r="F796" t="inlineStr">
         <is>
@@ -40980,13 +41047,13 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>5307</v>
+        <v>5311</v>
       </c>
       <c r="D797" t="n">
         <v>768</v>
       </c>
       <c r="E797" t="n">
-        <v>18489092</v>
+        <v>18504575</v>
       </c>
       <c r="F797" t="inlineStr">
         <is>
@@ -41031,13 +41098,13 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>17469</v>
+        <v>17476</v>
       </c>
       <c r="D798" t="n">
         <v>3895</v>
       </c>
       <c r="E798" t="n">
-        <v>32084857</v>
+        <v>32089770</v>
       </c>
       <c r="F798" t="inlineStr">
         <is>
@@ -41184,13 +41251,13 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>7013</v>
+        <v>7016</v>
       </c>
       <c r="D801" t="n">
         <v>1323</v>
       </c>
       <c r="E801" t="n">
-        <v>32646141</v>
+        <v>32647839</v>
       </c>
       <c r="F801" t="inlineStr">
         <is>
@@ -41337,13 +41404,13 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D804" t="n">
         <v>114</v>
       </c>
       <c r="E804" t="n">
-        <v>3296262</v>
+        <v>3313252</v>
       </c>
       <c r="F804" t="inlineStr">
         <is>
@@ -41388,13 +41455,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>8817</v>
+        <v>8819</v>
       </c>
       <c r="D805" t="n">
         <v>1913</v>
       </c>
       <c r="E805" t="n">
-        <v>18367411</v>
+        <v>18369191</v>
       </c>
       <c r="F805" t="inlineStr">
         <is>
@@ -41745,13 +41812,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>49697</v>
+        <v>49701</v>
       </c>
       <c r="D812" t="n">
         <v>10670</v>
       </c>
       <c r="E812" t="n">
-        <v>85941766</v>
+        <v>85945759</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -41898,13 +41965,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D815" t="n">
         <v>31</v>
       </c>
       <c r="E815" t="n">
-        <v>1019748</v>
+        <v>1057380</v>
       </c>
       <c r="F815" t="inlineStr">
         <is>
@@ -41949,13 +42016,13 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>22008</v>
+        <v>22013</v>
       </c>
       <c r="D816" t="n">
         <v>4096</v>
       </c>
       <c r="E816" t="n">
-        <v>106001880</v>
+        <v>106032672</v>
       </c>
       <c r="F816" t="inlineStr">
         <is>
@@ -42051,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>14534</v>
+        <v>14544</v>
       </c>
       <c r="D818" t="n">
         <v>2486</v>
       </c>
       <c r="E818" t="n">
-        <v>79935284</v>
+        <v>79973857</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -42153,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D820" t="n">
         <v>270</v>
       </c>
       <c r="E820" t="n">
-        <v>3669357</v>
+        <v>3688771</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -42255,13 +42322,13 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D822" t="n">
         <v>275</v>
       </c>
       <c r="E822" t="n">
-        <v>5559309</v>
+        <v>5565767</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -42306,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>31064</v>
+        <v>31077</v>
       </c>
       <c r="D823" t="n">
-        <v>7237</v>
+        <v>7238</v>
       </c>
       <c r="E823" t="n">
-        <v>48516068</v>
+        <v>48539925</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -42459,13 +42526,13 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>12840</v>
+        <v>12845</v>
       </c>
       <c r="D826" t="n">
         <v>2821</v>
       </c>
       <c r="E826" t="n">
-        <v>56007182</v>
+        <v>56027306</v>
       </c>
       <c r="F826" t="inlineStr">
         <is>
@@ -42561,13 +42628,13 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>6490</v>
+        <v>6495</v>
       </c>
       <c r="D828" t="n">
         <v>1282</v>
       </c>
       <c r="E828" t="n">
-        <v>25304064</v>
+        <v>25307892</v>
       </c>
       <c r="F828" t="inlineStr">
         <is>
@@ -42714,13 +42781,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>20540</v>
+        <v>20543</v>
       </c>
       <c r="D831" t="n">
         <v>4769</v>
       </c>
       <c r="E831" t="n">
-        <v>32983899</v>
+        <v>32990196</v>
       </c>
       <c r="F831" t="inlineStr">
         <is>
@@ -42867,13 +42934,13 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>8127</v>
+        <v>8129</v>
       </c>
       <c r="D834" t="n">
         <v>1830</v>
       </c>
       <c r="E834" t="n">
-        <v>35620851</v>
+        <v>35626657</v>
       </c>
       <c r="F834" t="inlineStr">
         <is>
@@ -42969,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>4054</v>
+        <v>4056</v>
       </c>
       <c r="D836" t="n">
         <v>805</v>
       </c>
       <c r="E836" t="n">
-        <v>17393411</v>
+        <v>17404333</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43071,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D838" t="n">
         <v>128</v>
       </c>
       <c r="E838" t="n">
-        <v>2606650</v>
+        <v>2607787</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43122,13 +43189,13 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>94350</v>
+        <v>94373</v>
       </c>
       <c r="D839" t="n">
         <v>22271</v>
       </c>
       <c r="E839" t="n">
-        <v>161652930</v>
+        <v>161678495</v>
       </c>
       <c r="F839" t="inlineStr">
         <is>
@@ -43326,13 +43393,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>56267</v>
+        <v>56288</v>
       </c>
       <c r="D843" t="n">
         <v>11355</v>
       </c>
       <c r="E843" t="n">
-        <v>280845583</v>
+        <v>280929478</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
@@ -43428,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>17854</v>
+        <v>17866</v>
       </c>
       <c r="D845" t="n">
         <v>3346</v>
       </c>
       <c r="E845" t="n">
-        <v>109154948</v>
+        <v>109432900</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43479,13 +43546,13 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D846" t="n">
         <v>390</v>
       </c>
       <c r="E846" t="n">
-        <v>4987534</v>
+        <v>4998449</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -43530,13 +43597,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="D847" t="n">
         <v>591</v>
       </c>
       <c r="E847" t="n">
-        <v>17055462</v>
+        <v>17060489</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
@@ -43581,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>47273</v>
+        <v>47285</v>
       </c>
       <c r="D848" t="n">
         <v>10718</v>
       </c>
       <c r="E848" t="n">
-        <v>86187552</v>
+        <v>86210549</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43734,13 +43801,13 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>26161</v>
+        <v>26173</v>
       </c>
       <c r="D851" t="n">
         <v>5524</v>
       </c>
       <c r="E851" t="n">
-        <v>129628690</v>
+        <v>129658516</v>
       </c>
       <c r="F851" t="inlineStr">
         <is>
@@ -43887,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>7145</v>
+        <v>7148</v>
       </c>
       <c r="D854" t="n">
         <v>1350</v>
       </c>
       <c r="E854" t="n">
-        <v>42778781</v>
+        <v>42830926</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -43989,13 +44056,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D856" t="n">
         <v>477</v>
       </c>
       <c r="E856" t="n">
-        <v>7262445</v>
+        <v>7267784</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -44040,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="D857" t="n">
         <v>408</v>
       </c>
       <c r="E857" t="n">
-        <v>9349011</v>
+        <v>9349867</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44091,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>15298</v>
+        <v>15302</v>
       </c>
       <c r="D858" t="n">
         <v>3455</v>
       </c>
       <c r="E858" t="n">
-        <v>30161986</v>
+        <v>30166914</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44142,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D859" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E859" t="n">
-        <v>1687971</v>
+        <v>1692736</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44193,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>7420</v>
+        <v>7423</v>
       </c>
       <c r="D860" t="n">
         <v>1700</v>
       </c>
       <c r="E860" t="n">
-        <v>34461161</v>
+        <v>34472531</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44295,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D862" t="n">
         <v>95</v>
       </c>
       <c r="E862" t="n">
-        <v>1079189</v>
+        <v>1089189</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44346,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D863" t="n">
         <v>139</v>
       </c>
       <c r="E863" t="n">
-        <v>3411074</v>
+        <v>3411623</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -44397,13 +44464,13 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>28329</v>
+        <v>28337</v>
       </c>
       <c r="D864" t="n">
         <v>6341</v>
       </c>
       <c r="E864" t="n">
-        <v>52977145</v>
+        <v>52985042</v>
       </c>
       <c r="F864" t="inlineStr">
         <is>
@@ -44550,13 +44617,13 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>13848</v>
+        <v>13859</v>
       </c>
       <c r="D867" t="n">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="E867" t="n">
-        <v>71028698</v>
+        <v>71115613</v>
       </c>
       <c r="F867" t="inlineStr">
         <is>
@@ -44805,13 +44872,13 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>41254</v>
+        <v>41259</v>
       </c>
       <c r="D872" t="n">
         <v>9639</v>
       </c>
       <c r="E872" t="n">
-        <v>74434983</v>
+        <v>74441638</v>
       </c>
       <c r="F872" t="inlineStr">
         <is>
@@ -45009,13 +45076,13 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>27161</v>
+        <v>27169</v>
       </c>
       <c r="D876" t="n">
         <v>5679</v>
       </c>
       <c r="E876" t="n">
-        <v>144444609</v>
+        <v>144531241</v>
       </c>
       <c r="F876" t="inlineStr">
         <is>
@@ -45111,13 +45178,13 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>6899</v>
+        <v>6902</v>
       </c>
       <c r="D878" t="n">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E878" t="n">
-        <v>50512922</v>
+        <v>50534147</v>
       </c>
       <c r="F878" t="inlineStr">
         <is>
@@ -45315,13 +45382,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>20709</v>
+        <v>20712</v>
       </c>
       <c r="D882" t="n">
         <v>4220</v>
       </c>
       <c r="E882" t="n">
-        <v>40333142</v>
+        <v>40334041</v>
       </c>
       <c r="F882" t="inlineStr">
         <is>
@@ -45621,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>4758</v>
+        <v>4763</v>
       </c>
       <c r="D888" t="n">
         <v>780</v>
       </c>
       <c r="E888" t="n">
-        <v>24481618</v>
+        <v>24525091</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45876,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>164075</v>
+        <v>164119</v>
       </c>
       <c r="D893" t="n">
-        <v>30704</v>
+        <v>30706</v>
       </c>
       <c r="E893" t="n">
-        <v>277715487</v>
+        <v>277762540</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46233,13 +46300,13 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>78555</v>
+        <v>78582</v>
       </c>
       <c r="D900" t="n">
         <v>13186</v>
       </c>
       <c r="E900" t="n">
-        <v>422455414</v>
+        <v>422740083</v>
       </c>
       <c r="F900" t="inlineStr">
         <is>
@@ -46386,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>57393</v>
+        <v>57411</v>
       </c>
       <c r="D903" t="n">
         <v>8948</v>
       </c>
       <c r="E903" t="n">
-        <v>312867737</v>
+        <v>313027386</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46488,13 +46555,13 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D905" t="n">
         <v>299</v>
       </c>
       <c r="E905" t="n">
-        <v>2320202</v>
+        <v>2321594</v>
       </c>
       <c r="F905" t="inlineStr">
         <is>
@@ -46539,13 +46606,13 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="D906" t="n">
         <v>484</v>
       </c>
       <c r="E906" t="n">
-        <v>13181128</v>
+        <v>13181399</v>
       </c>
       <c r="F906" t="inlineStr">
         <is>
@@ -46590,13 +46657,13 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>195813</v>
+        <v>195858</v>
       </c>
       <c r="D907" t="n">
-        <v>40314</v>
+        <v>40315</v>
       </c>
       <c r="E907" t="n">
-        <v>320404053</v>
+        <v>320439777</v>
       </c>
       <c r="F907" t="inlineStr">
         <is>
@@ -46947,13 +47014,13 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>93661</v>
+        <v>93703</v>
       </c>
       <c r="D914" t="n">
         <v>17536</v>
       </c>
       <c r="E914" t="n">
-        <v>444761933</v>
+        <v>445095134</v>
       </c>
       <c r="F914" t="inlineStr">
         <is>
@@ -47100,13 +47167,13 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>76479</v>
+        <v>76509</v>
       </c>
       <c r="D917" t="n">
-        <v>13353</v>
+        <v>13354</v>
       </c>
       <c r="E917" t="n">
-        <v>364330608</v>
+        <v>364482937</v>
       </c>
       <c r="F917" t="inlineStr">
         <is>
@@ -47151,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D918" t="n">
         <v>429</v>
       </c>
       <c r="E918" t="n">
-        <v>4310643</v>
+        <v>4312566</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -47202,13 +47269,13 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>7707</v>
+        <v>7718</v>
       </c>
       <c r="D919" t="n">
         <v>1177</v>
       </c>
       <c r="E919" t="n">
-        <v>28772595</v>
+        <v>28925582</v>
       </c>
       <c r="F919" t="inlineStr">
         <is>
@@ -47253,13 +47320,13 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>31681</v>
+        <v>31692</v>
       </c>
       <c r="D920" t="n">
         <v>5501</v>
       </c>
       <c r="E920" t="n">
-        <v>69926820</v>
+        <v>69946269</v>
       </c>
       <c r="F920" t="inlineStr">
         <is>
@@ -47457,13 +47524,13 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>11876</v>
+        <v>11882</v>
       </c>
       <c r="D924" t="n">
         <v>1952</v>
       </c>
       <c r="E924" t="n">
-        <v>74186252</v>
+        <v>74196189</v>
       </c>
       <c r="F924" t="inlineStr">
         <is>
@@ -47559,13 +47626,13 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="D926" t="n">
         <v>648</v>
       </c>
       <c r="E926" t="n">
-        <v>27686102</v>
+        <v>27687142</v>
       </c>
       <c r="F926" t="inlineStr">
         <is>
@@ -47763,13 +47830,13 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D930" t="n">
         <v>135</v>
       </c>
       <c r="E930" t="n">
-        <v>4220619</v>
+        <v>4220787</v>
       </c>
       <c r="F930" t="inlineStr">
         <is>
@@ -47814,13 +47881,13 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>126341</v>
+        <v>126366</v>
       </c>
       <c r="D931" t="n">
-        <v>26924</v>
+        <v>26926</v>
       </c>
       <c r="E931" t="n">
-        <v>213805747</v>
+        <v>213834209</v>
       </c>
       <c r="F931" t="inlineStr">
         <is>
@@ -47967,13 +48034,13 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D934" t="n">
         <v>142</v>
       </c>
       <c r="E934" t="n">
-        <v>7699871</v>
+        <v>7701497</v>
       </c>
       <c r="F934" t="inlineStr">
         <is>
@@ -48018,13 +48085,13 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>52043</v>
+        <v>52062</v>
       </c>
       <c r="D935" t="n">
         <v>10117</v>
       </c>
       <c r="E935" t="n">
-        <v>261445623</v>
+        <v>261516539</v>
       </c>
       <c r="F935" t="inlineStr">
         <is>
@@ -48120,13 +48187,13 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>37644</v>
+        <v>37656</v>
       </c>
       <c r="D937" t="n">
         <v>6893</v>
       </c>
       <c r="E937" t="n">
-        <v>188434461</v>
+        <v>188451869</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -48273,13 +48340,13 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="D940" t="n">
         <v>443</v>
       </c>
       <c r="E940" t="n">
-        <v>10351956</v>
+        <v>10353703</v>
       </c>
       <c r="F940" t="inlineStr">
         <is>
@@ -48324,13 +48391,13 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>64361</v>
+        <v>64375</v>
       </c>
       <c r="D941" t="n">
-        <v>13583</v>
+        <v>13584</v>
       </c>
       <c r="E941" t="n">
-        <v>110138575</v>
+        <v>110151986</v>
       </c>
       <c r="F941" t="inlineStr">
         <is>
@@ -48528,13 +48595,13 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>28981</v>
+        <v>28986</v>
       </c>
       <c r="D945" t="n">
-        <v>5373</v>
+        <v>5374</v>
       </c>
       <c r="E945" t="n">
-        <v>137525673</v>
+        <v>137552181</v>
       </c>
       <c r="F945" t="inlineStr">
         <is>
@@ -48630,13 +48697,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>18500</v>
+        <v>18509</v>
       </c>
       <c r="D947" t="n">
         <v>3298</v>
       </c>
       <c r="E947" t="n">
-        <v>89256421</v>
+        <v>89433686</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -48681,13 +48748,13 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D948" t="n">
         <v>3</v>
       </c>
       <c r="E948" t="n">
-        <v>251617</v>
+        <v>309418</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>
@@ -48732,13 +48799,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="D949" t="n">
         <v>553</v>
       </c>
       <c r="E949" t="n">
-        <v>12958352</v>
+        <v>12977872</v>
       </c>
       <c r="F949" t="inlineStr">
         <is>
